--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$5</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,7 +28,43 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">キーワード</t>
+    <t xml:space="preserve">アクション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">対象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">備考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url[https://www.google.com]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テキストボックス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サルゲッチュ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name[q]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click</t>
   </si>
   <si>
     <r>
@@ -33,96 +72,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">引数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">引数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">備考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">url[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://www.google.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テキストボックス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サルゲッチュ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name[q]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">click</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ボタン</t>
     </r>
@@ -131,6 +81,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[Google </t>
     </r>
@@ -139,6 +90,7 @@
         <sz val="10"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">検索</t>
     </r>
@@ -147,6 +99,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">]</t>
     </r>
@@ -173,6 +126,7 @@
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -193,12 +147,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,12 +199,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,12 +231,13 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
   </cols>
   <sheetData>
@@ -310,7 +271,7 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -361,7 +322,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.google.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="url[https://www.google.com]"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -111,7 +111,13 @@
     <t xml:space="preserve">assert</t>
   </si>
   <si>
-    <t xml:space="preserve">httpStatus[200]</t>
+    <t xml:space="preserve">タイトル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is[サルゲッチュ - Google 検索]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpath[/html/head/title]</t>
   </si>
 </sst>
 </file>
@@ -199,16 +205,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,29 +254,29 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="26.03"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -268,10 +290,10 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -279,7 +301,7 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -288,7 +310,7 @@
       <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -296,13 +318,13 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -310,14 +332,17 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>200</v>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$6</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -119,6 +120,12 @@
   <si>
     <t xml:space="preserve">xpath[/html/head/title]</t>
   </si>
+  <si>
+    <t xml:space="preserve">capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スクリーンショット</t>
+  </si>
 </sst>
 </file>
 
@@ -251,16 +258,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.15"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,6 +352,17 @@
       </c>
       <c r="F5" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -261,15 +261,16 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.68359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.83"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$E$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t xml:space="preserve">name[q]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボタン[Google 検索]表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is[true]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name[btnK#displayed]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボタン[Google 検索]活性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name[btnK#enabled]</t>
   </si>
   <si>
     <t xml:space="preserve">click</t>
@@ -109,9 +127,6 @@
     <t xml:space="preserve">name[btnK]</t>
   </si>
   <si>
-    <t xml:space="preserve">assert</t>
-  </si>
-  <si>
     <t xml:space="preserve">タイトル</t>
   </si>
   <si>
@@ -258,13 +273,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
@@ -334,8 +349,11 @@
       <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,27 +361,58 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -5,14 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="改訂履歴" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Google検索" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$A$1:$E$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$A$1:$E$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">改訂履歴!$A$1:$E$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">表紙!$A$1:$G$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$4:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Google検索!$A$4:$E$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +29,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">表紙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">改訂履歴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ヘッダー領域</t>
+  </si>
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -185,12 +199,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,32 +247,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,159 +293,306 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>26</v>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="url[https://www.google.com]"/>
+    <hyperlink ref="C5" r:id="rId1" display="url[https://www.google.com]"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,11 +13,11 @@
     <sheet name="Google検索" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$4:$E$11</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">改訂履歴!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">表紙!$A$1:$G$32</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$4:$E$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">Google検索!$A$4:$E$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$1:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Google検索!$A$4:$E$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">表紙</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">スクリーンショット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullscreen</t>
   </si>
 </sst>
 </file>
@@ -247,12 +250,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,10 +280,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,7 +369,7 @@
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -392,14 +391,14 @@
   </sheetPr>
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -421,8 +420,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,7 +568,7 @@
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -588,6 +587,9 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -13,11 +13,11 @@
     <sheet name="Google検索" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$4:$E$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$4:$E$14</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">改訂履歴!$A$1:$E$17</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">表紙!$A$1:$G$32</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$1:$E$11</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Google検索!$A$4:$E$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Google検索!$A$1:$E$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">Google検索!$A$4:$E$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t xml:space="preserve">表紙</t>
   </si>
@@ -67,6 +67,12 @@
     <t xml:space="preserve">url[https://www.google.com]</t>
   </si>
   <si>
+    <t xml:space="preserve">capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ウインドウ</t>
+  </si>
+  <si>
     <t xml:space="preserve">input</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">name[q]</t>
   </si>
   <si>
+    <t xml:space="preserve">要素スクリーンショット</t>
+  </si>
+  <si>
     <t xml:space="preserve">assert</t>
   </si>
   <si>
@@ -95,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">name[btnK#enabled]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フルスクリーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullscreen</t>
   </si>
   <si>
     <t xml:space="preserve">click</t>
@@ -150,13 +165,13 @@
     <t xml:space="preserve">xpath[/html/head/title]</t>
   </si>
   <si>
-    <t xml:space="preserve">capture</t>
+    <t xml:space="preserve">領域スクリーンショット</t>
   </si>
   <si>
     <t xml:space="preserve">スクリーンショット</t>
   </si>
   <si>
-    <t xml:space="preserve">fullscreen</t>
+    <t xml:space="preserve">rect[10:20:200:100]</t>
   </si>
 </sst>
 </file>
@@ -166,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -201,6 +216,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -250,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,6 +302,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,10 +444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,99 +524,153 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
+        <f aca="false">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
+        <f aca="false">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <f aca="false">A7+1</f>
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
+        <f aca="false">A8+1</f>
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
+        <f aca="false">A9+1</f>
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
+        <f aca="false">A10+1</f>
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <f aca="false">A11+1</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <f aca="false">A12+1</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <f aca="false">A13+1</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/asset/Google検索.xlsx
+++ b/asset/Google検索.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">capture</t>
   </si>
   <si>
-    <t xml:space="preserve"> ウインドウ</t>
+    <t xml:space="preserve">ウインドウ</t>
   </si>
   <si>
     <t xml:space="preserve">input</t>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
